--- a/QA_reports/bug_reports/Ziemos_kodas_Bug_Report_CASE ZK_FR19_RB.xlsx
+++ b/QA_reports/bug_reports/Ziemos_kodas_Bug_Report_CASE ZK_FR19_RB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtmc-my.sharepoint.com/personal/robertas_butylkinas_stud_techin_lt/Documents/Ziemos_kodas/QA_reports/bug_reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E37E4EE-E93E-4292-AD22-1DF45C2D298E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{5E37E4EE-E93E-4292-AD22-1DF45C2D298E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A57E627-3AB1-47E0-A65C-D11EEF8B704C}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21825" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZK_Bug_Report" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>Field</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>This Bug common to mobile, tablet and mobile screens</t>
-  </si>
-  <si>
-    <t>Mid</t>
   </si>
   <si>
     <t>Robertas Butylkinas</t>
@@ -176,6 +173,9 @@
   </si>
   <si>
     <t>"finances" icons overlapping navbar in mobile version</t>
+  </si>
+  <si>
+    <t>Medium</t>
   </si>
 </sst>
 </file>
@@ -596,8 +596,8 @@
   </sheetPr>
   <dimension ref="A1:B179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="72" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -620,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -644,23 +644,21 @@
         <v>6</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -668,7 +666,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -676,7 +674,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -684,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -692,7 +690,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -700,7 +698,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
@@ -708,7 +706,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -731,7 +729,9 @@
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="4">
+        <v>45262</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
